--- a/DOM_Banner/output/dept_banner/Rebecca Thiede_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Rebecca Thiede_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>; Division of Dermatology, The University of Arizona College of Medicine-Tucson, Tucson, Arizona; ; ; Tufts University School of Medicine, Boston, Massachusetts; Galter Health Sciences Library, Feinberg School of Medicine, Northwestern University, Chicago, Illinios; Department of Dermatology, Feinberg School of Medicine, Northwestern University, Chicago, Illinios</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W2936790403</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Sex differences in initial treatment for genital extramammary Paget disease in the United States: A systematic review</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of the American Academy of Dermatology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaad.2019.04.046</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/31015011</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaad.2019.04.046</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>University of Arizona - College of Medicine; University of California, San Francisco; ; University of Arizona - College of Medicine; DermPath Diagnostics; University of Arizona - College of Medicine</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321452894</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>An Ulcerated Verrucous Plaque on the Leg: A Case Report of Limited Cutaneous Leishmaniasis in Tucson, Arizona</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Social Science Research Network</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>RELX Group (Netherlands)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.2139/ssrn.4342106</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.2139/ssrn.4342106</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,80 +621,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Caitlyn B. Dagenet, Mitchell S. Davis, Sean D. Murphy, Rebecca Thiede, Keliegh S. Culpepper, Mohammad Reza Fazel</t>
+          <t>Hannah Godfrey, Zachary Leibovit‐Reiben, Rebecca Thiede</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4376639535</t>
+          <t>University of Arizona College of Medicine – Tucson  Tucson Arizona USA; University of Arizona College of Medicine – Tucson  Tucson Arizona USA; Division of Dermatology University of Arizona College of Medicine – Tucson  Tucson Arizona USA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Limited Cutaneous Leishmaniasis as Ulcerated Verrucous Plaque on Leg, Tucson, Arizona, USA1</t>
+          <t>https://openalex.org/W4381715942</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Skin through the lens of Rembrandt van Rijn</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Emerging Infectious Diseases</t>
+          <t>2023-06-23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Centers for Disease Control and Prevention</t>
+          <t>Journal of the European Academy of Dermatology and Venereology</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3201/eid2906.230125</t>
+          <t>Wiley-Blackwell</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1111/jdv.19274</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37209715</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3201/eid2906.230125</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37350434</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/jdv.19274</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,80 +708,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hannah Godfrey, Zachary Leibovit‐Reiben, Rebecca Thiede</t>
+          <t>Sabrina Dahak, Jennifer M. Fernandez, Jenna E. Koblinski, Clara Curiel‐Lewandrowski, Rebecca Thiede</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4381715942</t>
+          <t>University of Arizona College of Medicine - Phoenix; University of Nebraska Medical Center, Department of Dermatology; Emory University School of Medicine, Department of Dermatology; University of Arizona, College of Medicine – Tucson, Department of Medicine, Division of Dermatology; University of Arizona, College of Medicine – Tucson, Department of Medicine, Division of Dermatology</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Skin through the lens of Rembrandt van Rijn</t>
+          <t>https://openalex.org/W4387015691</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-06-23</t>
+          <t>42131 Pediatric and Adolescent Melanoma: An Analysis of Gender Differences in Frequency and Overall Survival by Histologic Subtype</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Journal of the European Academy of Dermatology and Venereology</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Wiley-Blackwell</t>
+          <t>Journal of the American Academy of Dermatology</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/jdv.19274</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1016/j.jaad.2023.07.821</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37350434</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/jdv.19274</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jaad.2023.07.821</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,80 +795,85 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sabrina Dahak, Jennifer M. Fernandez, Jenna E. Koblinski, Clara Curiel‐Lewandrowski, Rebecca Thiede</t>
+          <t>Caitlyn B. Dagenet, Mitchell S. Davis, Sean D. Murphy, Rebecca Thiede, Keliegh S. Culpepper, Mohammad Reza Fazel</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387015691</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>42131 Pediatric and Adolescent Melanoma: An Analysis of Gender Differences in Frequency and Overall Survival by Histologic Subtype</t>
+          <t>https://openalex.org/W4376639535</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>Limited Cutaneous Leishmaniasis as Ulcerated Verrucous Plaque on Leg, Tucson, Arizona, USA1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Journal of the American Academy of Dermatology</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Emerging Infectious Diseases</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jaad.2023.07.821</t>
+          <t>Centers for Disease Control and Prevention</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.3201/eid2906.230125</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jaad.2023.07.821</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37209715</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3201/eid2906.230125</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
